--- a/biology/Mycologie/Omphalina/Omphalina.xlsx
+++ b/biology/Mycologie/Omphalina/Omphalina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Omphalina est un genre de champignons basidiomycètes de la famille des Tricholomataceae. Il ne comprend que quelques-unes des espèces appelées « omphales » en français, les autres ayat été déplacées dans de nombreux autres genres et familles.
 </t>
@@ -511,11 +523,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre regroupe maintenant officiellement les Omphalina et l'ancien genre Omphalia (Fr.) Staude. Ce dernier, créé par Carl von Linné sous le nom d'Omphalea (1754) avait été repris par Persoon sous la forme Omphalia (1801) validée par Friès (1821) et modifiée dans son contenu par Staude (1857) jusqu'à ce que Singer déclare Omphalia et Omphalina synonymes.
 Ces divers noms sont tirés du grec omphalos, « ombilic », en référence au chapeau souvent déprimé en son centre de ces petits champignons. On retrouve cette racine dans les genres Omphalotus (qui n'est plus une tricholomatacée), Micromphale, Chrysomphalina et Xeromphalina.
-Par ailleurs les « omphalinoïdes », comme les appelle Michael Kuo[1], peuvent aussi inclure les genres Clitocybe, Clitocybula, Cantharellula, Gerronoma et Rickenella. Les changements de taxons au sein de cet ensemble ont été incessants.
+Par ailleurs les « omphalinoïdes », comme les appelle Michael Kuo, peuvent aussi inclure les genres Clitocybe, Clitocybula, Cantharellula, Gerronoma et Rickenella. Les changements de taxons au sein de cet ensemble ont été incessants.
 L'espèce-type des Omphalina est Omphalina pyxidata (en).
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (20 avril 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (20 avril 2020) :
 Omphalina affricata (Fr.) Raithelh. 1977
 Omphalina affricata (Fr.) Raithelh. 1980
 Omphalina alachuana Murrill 1942
